--- a/Data/Dataset_Full.xlsx
+++ b/Data/Dataset_Full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paraggupta/Desktop/projects/TVD_Associates/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B084052C-5D96-454D-BCDF-A077379B0294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3285BEFA-4043-D041-BBB6-13AE05B265CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4300" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - d_20240328102417" sheetId="1" r:id="rId1"/>
@@ -13029,7 +13029,7 @@
   <dimension ref="A1:AO390"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
